--- a/current sensor graph.xlsx
+++ b/current sensor graph.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\LAB III\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -105,9 +105,74 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Calculated Outputs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1183727034120735"/>
+          <c:y val="9.4872776319626706E-2"/>
+          <c:w val="0.84396062992125986"/>
+          <c:h val="0.74350320793234181"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -442,6 +507,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43877646544181975"/>
+              <c:y val="0.91336796442111401"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -721,7 +794,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Measured Outpputs</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -924,6 +1000,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input Current</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -986,6 +1117,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Output</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Voltage</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2188,16 +2379,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2224,16 +2415,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2256,6 +2447,93 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2ACC0E3-F022-4124-BEF8-2815255D6A3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8677275" y="3286125"/>
+          <a:ext cx="3800475" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Measured</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> w</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ith a 22</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Ohm resister with a 5% tolerence: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0.0059*22=0.1298</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2560,8 +2838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
